--- a/Dynamics of Atmospheric Flight/Aero_Project/A_18_MachUP.xlsx
+++ b/Dynamics of Atmospheric Flight/Aero_Project/A_18_MachUP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\Aero_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\USU\Machine_Learning\Spring_2024\Dynamics of Atmospheric Flight\Aero_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732B6F4A-CDF6-4613-A730-2CF4546B9B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18E98C8-96CE-40AD-A1DD-E0F5A957830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{A63E6AFB-F69A-4C02-A7B8-ACF62953D1BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A63E6AFB-F69A-4C02-A7B8-ACF62953D1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Alpha</t>
   </si>
@@ -85,11 +85,23 @@
   <si>
     <t>RA</t>
   </si>
+  <si>
+    <t>Aircraft Weight</t>
+  </si>
+  <si>
+    <t>Pitch Deriv</t>
+  </si>
+  <si>
+    <t>Versus plot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,8 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +149,2161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.0099999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2092000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4065000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6062000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8084</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0133000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$24:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15290000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$24:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.48E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.1700000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.25319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.31430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.37919999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>L/D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$24:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.009009009009009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.885135135135137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.676056338028168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.762214983713353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.588372093023256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.705479452054796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.289986996098833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.257085020242915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.583870967741936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.167429692609549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Drag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$24:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.15608318881987354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7698275086277581E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6790859441988837E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7072648315140025E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1084036087099651E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.652673939711828E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2843169179486539E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9566101464139411E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.664515466840143E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3788958245694869E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1070510653739131E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>PowerRequired</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$24:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.4170691688872834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.189297912945201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69771358211894607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58828632148860061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57166104722627042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58212712287944546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60460953982509713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63057061831627692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65837379011200536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68465906268842802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71004971174587461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Static Margin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$24:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32440000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>NoWGlide</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$24:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.009009009009009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.885135135135137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.676056338028168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.762214983713353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.588372093023256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.705479452054796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.289986996098833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.257085020242915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.583870967741936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.167429692609549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>SinkRate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$24:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.7417482469866314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0810128552361917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63418706392552604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53472310778207055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51961155751044874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52912470152744162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54956010418853185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57315743777441386</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59842914287065208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62232115281131817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64539999431530992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>PitchDeriv</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$24:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.95840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0196000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4914000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5939000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6988000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8045</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>RollDeriv</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$24:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.1759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.15390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.12239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.4199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.1700000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>YawDeriv</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$24:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.9699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2200000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5400000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9200000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.8899999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1596941520"/>
+        <c:axId val="1653468160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1596941520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653468160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1653468160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596941520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C61FDB5-ACDA-ED59-CAEC-DF1D66874B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,287 +2603,1265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4602115-156F-4427-9CDC-7D2EBE7CF748}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>-6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.01</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.113</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>B2/C2</f>
         <v>7.01</v>
       </c>
+      <c r="F2" s="1">
+        <f>SQRT($F$18*COS(A2*PI()/180)/(0.5*$F$15*B2*$F$16))</f>
+        <v>47.519974604355937</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C2*0.5*$F$15*$F$16*F2*F2</f>
+        <v>0.15608318881987354</v>
+      </c>
+      <c r="H2" s="1">
+        <f>G2*F2</f>
+        <v>7.4170691688872834</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.1812</v>
+      </c>
+      <c r="J2" s="1">
+        <f>E2</f>
+        <v>7.01</v>
+      </c>
+      <c r="K2" s="1">
+        <f>H2/$F$18</f>
+        <v>6.7417482469866314</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-0.95840000000000003</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-0.1759</v>
+      </c>
+      <c r="N2" s="1">
+        <v>9.9699999999999997E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>-4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.25540000000000002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.11E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f t="shared" ref="E3:E12" si="0">B3/C3</f>
         <v>23.009009009009009</v>
       </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F12" si="1">SQRT($F$18*COS(A3*PI()/180)/(0.5*$F$15*B3*$F$16))</f>
+        <v>24.933771940263572</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G12" si="2">C3*0.5*$F$15*$F$16*F3*F3</f>
+        <v>4.7698275086277581E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H12" si="3">G3*F3</f>
+        <v>1.189297912945201</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.1915</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J12" si="4">E3</f>
+        <v>23.009009009009009</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K12" si="5">H3/$F$18</f>
+        <v>1.0810128552361917</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1.0196000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-0.1653</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9.2200000000000004E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.44230000000000003</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>29.885135135135137</v>
       </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>18.964318656895969</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6790859441988837E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.69771358211894607</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.21060000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="4"/>
+        <v>29.885135135135137</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.63418706392552604</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1.1348</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-0.15390000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>8.5400000000000004E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.6321</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>-3.8999999999999998E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>29.676056338028168</v>
       </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>15.86847307178623</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7072648315140025E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.58828632148860061</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="4"/>
+        <v>29.676056338028168</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53472310778207055</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1.2942</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>8.5199999999999998E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.8216</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>-4.48E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>26.762214983713353</v>
       </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>13.914432506444308</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1084036087099651E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.57166104722627042</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.2361</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="4"/>
+        <v>26.762214983713353</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.51961155751044874</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1.2961</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-0.1331</v>
+      </c>
+      <c r="N6" s="1">
+        <v>8.8800000000000004E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1.0143</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>-9.1700000000000004E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>23.588372093023256</v>
       </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>12.511668137989068</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.652673939711828E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.58212712287944546</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.2505</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="4"/>
+        <v>23.588372093023256</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.52912470152744162</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1.3908</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-0.12239999999999999</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7.9200000000000007E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1.2092000000000001</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>-0.14199999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>20.705479452054796</v>
       </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>11.441583637262308</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2843169179486539E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.60460953982509713</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>20.705479452054796</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54956010418853185</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1.4914000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-0.1176</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.14680000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1.4065000000000001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>-0.1958</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>18.289986996098833</v>
       </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>10.586064939903771</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>5.9566101464139411E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.63057061831627692</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="4"/>
+        <v>18.289986996098833</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.57315743777441386</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1.5939000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-0.1153</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.2056</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1.6062000000000001</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>-0.25319999999999998</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>16.257085020242915</v>
       </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>9.87879454084546</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>6.664515466840143E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65837379011200536</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.29509999999999997</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="4"/>
+        <v>16.257085020242915</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.59842914287065208</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1.6988000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-0.1169</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.2717</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1.8084</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.124</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>-0.31430000000000002</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>14.583870967741936</v>
       </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>9.278611312125058</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3788958245694869E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.68465906268842802</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.30940000000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>14.583870967741936</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.62232115281131817</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1.8045</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-6.4199999999999993E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>2.0133000000000001</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.15290000000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>-0.37919999999999998</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>13.167429692609549</v>
       </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7584216013955221</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>8.1070510653739131E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.71004971174587461</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="4"/>
+        <v>13.167429692609549</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.64539999431530992</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1.9172</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-5.1700000000000003E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-2.8899999999999999E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F15" s="1">
+        <f>0.002048</f>
+        <v>2.0479999999999999E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F16" s="1">
+        <v>6.75</v>
+      </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E17" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.1001700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E21" s="1">
+        <f>COS(PI())</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B24" s="1">
+        <f>SQRT($F$18*COS(A24*PI()/180)/(0.5*$F$15*C24*$F$16))</f>
+        <v>47.519974604355937</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="F24" s="1">
+        <f>C24/D24</f>
+        <v>7.01</v>
+      </c>
+      <c r="G24" s="1">
+        <f>D24*0.5*$F$15*$F$16*B24*B24</f>
+        <v>0.15608318881987354</v>
+      </c>
+      <c r="H24" s="1">
+        <f>G24*B24</f>
+        <v>7.4170691688872834</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.1812</v>
+      </c>
+      <c r="J24" s="1">
+        <f>F24</f>
+        <v>7.01</v>
+      </c>
+      <c r="K24" s="1">
+        <f>H24/$F$18</f>
+        <v>6.7417482469866314</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-0.95840000000000003</v>
+      </c>
+      <c r="M24" s="1">
+        <v>-0.1759</v>
+      </c>
+      <c r="N24" s="1">
+        <v>9.9699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B25" s="1">
+        <f>SQRT($F$18*COS(A25*PI()/180)/(0.5*$F$15*C25*$F$16))</f>
+        <v>24.933771940263572</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ref="F25:F34" si="6">C25/D25</f>
+        <v>23.009009009009009</v>
+      </c>
+      <c r="G25" s="1">
+        <f>D25*0.5*$F$15*$F$16*B25*B25</f>
+        <v>4.7698275086277581E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <f>G25*B25</f>
+        <v>1.189297912945201</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.1915</v>
+      </c>
+      <c r="J25" s="1">
+        <f>F25</f>
+        <v>23.009009009009009</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" ref="K25:K34" si="7">H25/$F$18</f>
+        <v>1.0810128552361917</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-1.0196000000000001</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-0.1653</v>
+      </c>
+      <c r="N25" s="1">
+        <v>9.2200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B26" s="1">
+        <f>SQRT($F$18*COS(A26*PI()/180)/(0.5*$F$15*C26*$F$16))</f>
+        <v>18.964318656895969</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.44230000000000003</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="6"/>
+        <v>29.885135135135137</v>
+      </c>
+      <c r="G26" s="1">
+        <f>D26*0.5*$F$15*$F$16*B26*B26</f>
+        <v>3.6790859441988837E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <f>G26*B26</f>
+        <v>0.69771358211894607</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.21060000000000001</v>
+      </c>
+      <c r="J26" s="1">
+        <f>F26</f>
+        <v>29.885135135135137</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="7"/>
+        <v>0.63418706392552604</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-1.1348</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-0.15390000000000001</v>
+      </c>
+      <c r="N26" s="1">
+        <v>8.5400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <f>SQRT($F$18*COS(A27*PI()/180)/(0.5*$F$15*C27*$F$16))</f>
+        <v>15.86847307178623</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.6321</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="6"/>
+        <v>29.676056338028168</v>
+      </c>
+      <c r="G27" s="1">
+        <f>D27*0.5*$F$15*$F$16*B27*B27</f>
+        <v>3.7072648315140025E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <f>G27*B27</f>
+        <v>0.58828632148860061</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="J27" s="1">
+        <f>F27</f>
+        <v>29.676056338028168</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="7"/>
+        <v>0.53472310778207055</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-1.2942</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="N27" s="1">
+        <v>8.5199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <f>SQRT($F$18*COS(A28*PI()/180)/(0.5*$F$15*C28*$F$16))</f>
+        <v>13.914432506444308</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.8216</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-4.48E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="6"/>
+        <v>26.762214983713353</v>
+      </c>
+      <c r="G28" s="1">
+        <f>D28*0.5*$F$15*$F$16*B28*B28</f>
+        <v>4.1084036087099651E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <f>G28*B28</f>
+        <v>0.57166104722627042</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.2361</v>
+      </c>
+      <c r="J28" s="1">
+        <f>F28</f>
+        <v>26.762214983713353</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.51961155751044874</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-1.2961</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-0.1331</v>
+      </c>
+      <c r="N28" s="1">
+        <v>8.8800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <f>SQRT($F$18*COS(A29*PI()/180)/(0.5*$F$15*C29*$F$16))</f>
+        <v>12.511668137989068</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.0143</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-9.1700000000000004E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="6"/>
+        <v>23.588372093023256</v>
+      </c>
+      <c r="G29" s="1">
+        <f>D29*0.5*$F$15*$F$16*B29*B29</f>
+        <v>4.652673939711828E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <f>G29*B29</f>
+        <v>0.58212712287944546</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.2505</v>
+      </c>
+      <c r="J29" s="1">
+        <f>F29</f>
+        <v>23.588372093023256</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="7"/>
+        <v>0.52912470152744162</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-1.3908</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-0.12239999999999999</v>
+      </c>
+      <c r="N29" s="1">
+        <v>7.9200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <f>SQRT($F$18*COS(A30*PI()/180)/(0.5*$F$15*C30*$F$16))</f>
+        <v>11.441583637262308</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.2092000000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="6"/>
+        <v>20.705479452054796</v>
+      </c>
+      <c r="G30" s="1">
+        <f>D30*0.5*$F$15*$F$16*B30*B30</f>
+        <v>5.2843169179486539E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <f>G30*B30</f>
+        <v>0.60460953982509713</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="J30" s="1">
+        <f>F30</f>
+        <v>20.705479452054796</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="7"/>
+        <v>0.54956010418853185</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-1.4914000000000001</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-0.1176</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.14680000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <f>SQRT($F$18*COS(A31*PI()/180)/(0.5*$F$15*C31*$F$16))</f>
+        <v>10.586064939903771</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.1958</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="6"/>
+        <v>18.289986996098833</v>
+      </c>
+      <c r="G31" s="1">
+        <f>D31*0.5*$F$15*$F$16*B31*B31</f>
+        <v>5.9566101464139411E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <f>G31*B31</f>
+        <v>0.63057061831627692</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="J31" s="1">
+        <f>F31</f>
+        <v>18.289986996098833</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="7"/>
+        <v>0.57315743777441386</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-1.5939000000000001</v>
+      </c>
+      <c r="M31" s="1">
+        <v>-0.1153</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.2056</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1">
+        <f>SQRT($F$18*COS(A32*PI()/180)/(0.5*$F$15*C32*$F$16))</f>
+        <v>9.87879454084546</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.6062000000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.25319999999999998</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="6"/>
+        <v>16.257085020242915</v>
+      </c>
+      <c r="G32" s="1">
+        <f>D32*0.5*$F$15*$F$16*B32*B32</f>
+        <v>6.664515466840143E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <f>G32*B32</f>
+        <v>0.65837379011200536</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.29509999999999997</v>
+      </c>
+      <c r="J32" s="1">
+        <f>F32</f>
+        <v>16.257085020242915</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="7"/>
+        <v>0.59842914287065208</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-1.6988000000000001</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-0.1169</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.2717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1">
+        <f>SQRT($F$18*COS(A33*PI()/180)/(0.5*$F$15*C33*$F$16))</f>
+        <v>9.278611312125058</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.8084</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-0.31430000000000002</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="6"/>
+        <v>14.583870967741936</v>
+      </c>
+      <c r="G33" s="1">
+        <f>D33*0.5*$F$15*$F$16*B33*B33</f>
+        <v>7.3788958245694869E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <f>G33*B33</f>
+        <v>0.68465906268842802</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.30940000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <f>F33</f>
+        <v>14.583870967741936</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="7"/>
+        <v>0.62232115281131817</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-1.8045</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-6.4199999999999993E-2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1">
+        <f>SQRT($F$18*COS(A34*PI()/180)/(0.5*$F$15*C34*$F$16))</f>
+        <v>8.7584216013955221</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.0133000000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-0.37919999999999998</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="6"/>
+        <v>13.167429692609549</v>
+      </c>
+      <c r="G34" s="1">
+        <f>D34*0.5*$F$15*$F$16*B34*B34</f>
+        <v>8.1070510653739131E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <f>G34*B34</f>
+        <v>0.71004971174587461</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="J34" s="1">
+        <f>F34</f>
+        <v>13.167429692609549</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="7"/>
+        <v>0.64539999431530992</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-1.9172</v>
+      </c>
+      <c r="M34" s="1">
+        <v>-5.1700000000000003E-2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>-2.8899999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dynamics of Atmospheric Flight/Aero_Project/A_18_MachUP.xlsx
+++ b/Dynamics of Atmospheric Flight/Aero_Project/A_18_MachUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\USU\Machine_Learning\Spring_2024\Dynamics of Atmospheric Flight\Aero_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18E98C8-96CE-40AD-A1DD-E0F5A957830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D187AB77-3001-4161-A1EB-D3FD47412209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A63E6AFB-F69A-4C02-A7B8-ACF62953D1BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Alpha</t>
   </si>
@@ -94,6 +94,66 @@
   <si>
     <t>Versus plot</t>
   </si>
+  <si>
+    <t>Clmax</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Cd0</t>
+  </si>
+  <si>
+    <t>Cd1</t>
+  </si>
+  <si>
+    <t>Cd2</t>
+  </si>
+  <si>
+    <t>V Min Drag</t>
+  </si>
+  <si>
+    <t>V Min Stall</t>
+  </si>
+  <si>
+    <t>V Min power</t>
+  </si>
+  <si>
+    <t>Problem A_21</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CN_alpha</t>
+  </si>
+  <si>
+    <t>CA_alpha</t>
+  </si>
+  <si>
+    <t>CN_alpha_alpha</t>
+  </si>
+  <si>
+    <t>CA_alpha_alpha</t>
+  </si>
+  <si>
+    <t>Cm0_alpha</t>
+  </si>
+  <si>
+    <t>Cm0_alpha_alpha</t>
+  </si>
+  <si>
+    <t>X_ac</t>
+  </si>
+  <si>
+    <t>Y_ac</t>
+  </si>
 </sst>
 </file>
 
@@ -102,13 +162,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,13 +193,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,8 +257,1208 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="12"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CL</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.0099999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2092000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4065000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6062000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8084</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0133000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CD</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$24:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15290000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cm</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$24:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.48E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.1700000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.25319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.31430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.37919999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>L/D</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$24:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.009009009009009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.885135135135137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.676056338028168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.762214983713353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.588372093023256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.705479452054796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.289986996098833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.257085020242915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.583870967741936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.167429692609549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Drag</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$24:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.15608318881987354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7698275086277581E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6790859441988837E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7072648315140025E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1084036087099651E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.652673939711828E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2843169179486539E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9566101464139411E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.664515466840143E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3788958245694869E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1070510653739131E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>PowerRequired</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$24:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.4170691688872834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.189297912945201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69771358211894607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58828632148860061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57166104722627042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58212712287944546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60460953982509713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63057061831627692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65837379011200536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68465906268842802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71004971174587461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Static Margin</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$24:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32440000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>NoWGlide</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$24:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.009009009009009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.885135135135137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.676056338028168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.762214983713353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.588372093023256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.705479452054796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.289986996098833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.257085020242915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.583870967741936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.167429692609549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>SinkRate</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$24:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.7417482469866314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0810128552361917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63418706392552604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53472310778207055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51961155751044874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52912470152744162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54956010418853185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57315743777441386</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59842914287065208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62232115281131817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64539999431530992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>PitchDeriv</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$24:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.95840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0196000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4914000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5939000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6988000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8045</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>RollDeriv</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$24:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.1759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.15390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.12239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.4199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.1700000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>YawDeriv</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$24:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.9699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2200000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5400000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9200000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.8899999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-E561-4AA8-A6D1-FB7C5A50CB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="12"/>
           <c:tx>
             <c:v>CL</c:v>
           </c:tx>
@@ -276,13 +1561,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{00000001-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="13"/>
           <c:tx>
             <c:v>CD</c:v>
           </c:tx>
@@ -385,13 +1670,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{00000003-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="14"/>
           <c:tx>
             <c:v>Cm</c:v>
           </c:tx>
@@ -494,13 +1779,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{00000005-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="15"/>
           <c:tx>
             <c:v>L/D</c:v>
           </c:tx>
@@ -603,13 +1888,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{00000007-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="16"/>
           <c:tx>
             <c:v>Drag</c:v>
           </c:tx>
@@ -712,13 +1997,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{00000009-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="17"/>
           <c:tx>
             <c:v>PowerRequired</c:v>
           </c:tx>
@@ -821,13 +2106,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{0000000B-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="18"/>
           <c:tx>
             <c:v>Static Margin</c:v>
           </c:tx>
@@ -932,13 +2217,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{0000000D-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="19"/>
           <c:tx>
             <c:v>NoWGlide</c:v>
           </c:tx>
@@ -1043,13 +2328,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{0000000F-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="20"/>
           <c:tx>
             <c:v>SinkRate</c:v>
           </c:tx>
@@ -1154,13 +2439,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{00000011-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="21"/>
           <c:tx>
             <c:v>PitchDeriv</c:v>
           </c:tx>
@@ -1265,13 +2550,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{00000013-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="22"/>
           <c:tx>
             <c:v>RollDeriv</c:v>
           </c:tx>
@@ -1376,13 +2661,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{00000015-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:order val="23"/>
           <c:tx>
             <c:v>YawDeriv</c:v>
           </c:tx>
@@ -1487,7 +2772,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-00BF-46BD-AAFE-1B54CBDB54EB}"/>
+              <c16:uniqueId val="{00000017-E561-4AA8-A6D1-FB7C5A50CB83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1626,13 +2911,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1665,6 +2943,1671 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Drag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$24:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.15608318881987354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7698275086277581E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6790859441988837E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7072648315140025E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1084036087099651E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.652673939711828E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2843169179486539E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9566101464139411E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.664515466840143E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3788958245694869E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1070510653739131E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A5E-4337-8FF4-6867495F0A54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="752221728"/>
+        <c:axId val="754871744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="752221728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754871744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="754871744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752221728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Power Required</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25983136482939634"/>
+                  <c:y val="0.18476851851851853"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$24:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.4170691688872834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.189297912945201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69771358211894607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58828632148860061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57166104722627042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58212712287944546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60460953982509713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63057061831627692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65837379011200536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68465906268842802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71004971174587461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-576D-4183-8AE0-31DBD7DF1909}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="752221728"/>
+        <c:axId val="754871744"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Drag</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$24:$B$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>47.519974604355937</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24.933771940263572</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>18.964318656895969</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15.86847307178623</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13.914432506444308</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12.511668137989068</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11.441583637262308</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10.586064939903771</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.87879454084546</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.278611312125058</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.7584216013955221</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$24:$G$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.15608318881987354</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.7698275086277581E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.6790859441988837E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.7072648315140025E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.1084036087099651E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.652673939711828E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.2843169179486539E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.9566101464139411E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.664515466840143E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.3788958245694869E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.1070510653739131E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-576D-4183-8AE0-31DBD7DF1909}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="752221728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754871744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="754871744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752221728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.519974604355937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.933771940263572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.964318656895969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.86847307178623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.914432506444308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.511668137989068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.441583637262308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.586064939903771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.87879454084546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.278611312125058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7584216013955221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$24:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.009009009009009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.885135135135137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.676056338028168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.762214983713353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.588372093023256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.705479452054796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.289986996098833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.257085020242915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.583870967741936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.167429692609549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BFB8-4B5A-9898-C6E2F7A4E22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="752221728"/>
+        <c:axId val="754871744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="752221728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754871744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="754871744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752221728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X_loc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$70:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$70:$O$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1997783799434989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20291507071950055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23456396910097707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16160429505446716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19711139007894257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19569129847820152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19074106729754847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18902127810638444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18301001460246016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5F0-4AAF-AB98-0CBFC5ACCC46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Y Loc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$70:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$70:$P$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.5238830954210399E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48473431089392255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.19094777537722046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52786935833714876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29882696049921825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30563139500164604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32443953027068145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32985906426194822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34595669961869441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5F0-4AAF-AB98-0CBFC5ACCC46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="52038464"/>
+        <c:axId val="762609296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52038464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762609296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="762609296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52038464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1749,6 +4692,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2265,20 +5328,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2298,6 +6909,154 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EF8BE6-7A2E-DE4A-20F2-AC99BD6B11E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C2F65A-83C6-4169-8686-4E8D774BD266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D93015E-F5D7-4C8D-8369-282F917FE71C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8FC747-1101-E5B6-8E79-1694047DBAA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2603,21 +7362,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4602115-156F-4427-9CDC-7D2EBE7CF748}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="S73" sqref="S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
@@ -3314,7 +8073,7 @@
         <v>-6</v>
       </c>
       <c r="B24" s="1">
-        <f>SQRT($F$18*COS(A24*PI()/180)/(0.5*$F$15*C24*$F$16))</f>
+        <f t="shared" ref="B24:B34" si="6">SQRT($F$18*COS(A24*PI()/180)/(0.5*$F$15*C24*$F$16))</f>
         <v>47.519974604355937</v>
       </c>
       <c r="C24" s="1">
@@ -3331,18 +8090,18 @@
         <v>7.01</v>
       </c>
       <c r="G24" s="1">
-        <f>D24*0.5*$F$15*$F$16*B24*B24</f>
+        <f t="shared" ref="G24:G34" si="7">D24*0.5*$F$15*$F$16*B24*B24</f>
         <v>0.15608318881987354</v>
       </c>
       <c r="H24" s="1">
-        <f>G24*B24</f>
+        <f t="shared" ref="H24:H34" si="8">G24*B24</f>
         <v>7.4170691688872834</v>
       </c>
       <c r="I24" s="1">
         <v>0.1812</v>
       </c>
       <c r="J24" s="1">
-        <f>F24</f>
+        <f t="shared" ref="J24:J34" si="9">F24</f>
         <v>7.01</v>
       </c>
       <c r="K24" s="1">
@@ -3364,7 +8123,7 @@
         <v>-4</v>
       </c>
       <c r="B25" s="1">
-        <f>SQRT($F$18*COS(A25*PI()/180)/(0.5*$F$15*C25*$F$16))</f>
+        <f t="shared" si="6"/>
         <v>24.933771940263572</v>
       </c>
       <c r="C25" s="1">
@@ -3377,26 +8136,26 @@
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25:F34" si="6">C25/D25</f>
+        <f t="shared" ref="F25:F34" si="10">C25/D25</f>
         <v>23.009009009009009</v>
       </c>
       <c r="G25" s="1">
-        <f>D25*0.5*$F$15*$F$16*B25*B25</f>
+        <f t="shared" si="7"/>
         <v>4.7698275086277581E-2</v>
       </c>
       <c r="H25" s="1">
-        <f>G25*B25</f>
+        <f t="shared" si="8"/>
         <v>1.189297912945201</v>
       </c>
       <c r="I25" s="1">
         <v>0.1915</v>
       </c>
       <c r="J25" s="1">
-        <f>F25</f>
+        <f t="shared" si="9"/>
         <v>23.009009009009009</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:K34" si="7">H25/$F$18</f>
+        <f t="shared" ref="K25:K34" si="11">H25/$F$18</f>
         <v>1.0810128552361917</v>
       </c>
       <c r="L25" s="1">
@@ -3414,7 +8173,7 @@
         <v>-2</v>
       </c>
       <c r="B26" s="1">
-        <f>SQRT($F$18*COS(A26*PI()/180)/(0.5*$F$15*C26*$F$16))</f>
+        <f t="shared" si="6"/>
         <v>18.964318656895969</v>
       </c>
       <c r="C26" s="1">
@@ -3427,26 +8186,26 @@
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>29.885135135135137</v>
       </c>
       <c r="G26" s="1">
-        <f>D26*0.5*$F$15*$F$16*B26*B26</f>
+        <f t="shared" si="7"/>
         <v>3.6790859441988837E-2</v>
       </c>
       <c r="H26" s="1">
-        <f>G26*B26</f>
+        <f t="shared" si="8"/>
         <v>0.69771358211894607</v>
       </c>
       <c r="I26" s="1">
         <v>0.21060000000000001</v>
       </c>
       <c r="J26" s="1">
-        <f>F26</f>
+        <f t="shared" si="9"/>
         <v>29.885135135135137</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.63418706392552604</v>
       </c>
       <c r="L26" s="1">
@@ -3464,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1">
-        <f>SQRT($F$18*COS(A27*PI()/180)/(0.5*$F$15*C27*$F$16))</f>
+        <f t="shared" si="6"/>
         <v>15.86847307178623</v>
       </c>
       <c r="C27" s="1">
@@ -3477,26 +8236,26 @@
         <v>-3.8999999999999998E-3</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>29.676056338028168</v>
       </c>
       <c r="G27" s="1">
-        <f>D27*0.5*$F$15*$F$16*B27*B27</f>
+        <f t="shared" si="7"/>
         <v>3.7072648315140025E-2</v>
       </c>
       <c r="H27" s="1">
-        <f>G27*B27</f>
+        <f t="shared" si="8"/>
         <v>0.58828632148860061</v>
       </c>
       <c r="I27" s="1">
         <v>0.23649999999999999</v>
       </c>
       <c r="J27" s="1">
-        <f>F27</f>
+        <f t="shared" si="9"/>
         <v>29.676056338028168</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.53472310778207055</v>
       </c>
       <c r="L27" s="1">
@@ -3514,7 +8273,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1">
-        <f>SQRT($F$18*COS(A28*PI()/180)/(0.5*$F$15*C28*$F$16))</f>
+        <f t="shared" si="6"/>
         <v>13.914432506444308</v>
       </c>
       <c r="C28" s="1">
@@ -3527,26 +8286,26 @@
         <v>-4.48E-2</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>26.762214983713353</v>
       </c>
       <c r="G28" s="1">
-        <f>D28*0.5*$F$15*$F$16*B28*B28</f>
+        <f t="shared" si="7"/>
         <v>4.1084036087099651E-2</v>
       </c>
       <c r="H28" s="1">
-        <f>G28*B28</f>
+        <f t="shared" si="8"/>
         <v>0.57166104722627042</v>
       </c>
       <c r="I28" s="1">
         <v>0.2361</v>
       </c>
       <c r="J28" s="1">
-        <f>F28</f>
+        <f t="shared" si="9"/>
         <v>26.762214983713353</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.51961155751044874</v>
       </c>
       <c r="L28" s="1">
@@ -3564,7 +8323,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1">
-        <f>SQRT($F$18*COS(A29*PI()/180)/(0.5*$F$15*C29*$F$16))</f>
+        <f t="shared" si="6"/>
         <v>12.511668137989068</v>
       </c>
       <c r="C29" s="1">
@@ -3577,26 +8336,26 @@
         <v>-9.1700000000000004E-2</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23.588372093023256</v>
       </c>
       <c r="G29" s="1">
-        <f>D29*0.5*$F$15*$F$16*B29*B29</f>
+        <f t="shared" si="7"/>
         <v>4.652673939711828E-2</v>
       </c>
       <c r="H29" s="1">
-        <f>G29*B29</f>
+        <f t="shared" si="8"/>
         <v>0.58212712287944546</v>
       </c>
       <c r="I29" s="1">
         <v>0.2505</v>
       </c>
       <c r="J29" s="1">
-        <f>F29</f>
+        <f t="shared" si="9"/>
         <v>23.588372093023256</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.52912470152744162</v>
       </c>
       <c r="L29" s="1">
@@ -3614,7 +8373,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="1">
-        <f>SQRT($F$18*COS(A30*PI()/180)/(0.5*$F$15*C30*$F$16))</f>
+        <f t="shared" si="6"/>
         <v>11.441583637262308</v>
       </c>
       <c r="C30" s="1">
@@ -3627,26 +8386,26 @@
         <v>-0.14199999999999999</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20.705479452054796</v>
       </c>
       <c r="G30" s="1">
-        <f>D30*0.5*$F$15*$F$16*B30*B30</f>
+        <f t="shared" si="7"/>
         <v>5.2843169179486539E-2</v>
       </c>
       <c r="H30" s="1">
-        <f>G30*B30</f>
+        <f t="shared" si="8"/>
         <v>0.60460953982509713</v>
       </c>
       <c r="I30" s="1">
         <v>0.26550000000000001</v>
       </c>
       <c r="J30" s="1">
-        <f>F30</f>
+        <f t="shared" si="9"/>
         <v>20.705479452054796</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.54956010418853185</v>
       </c>
       <c r="L30" s="1">
@@ -3664,7 +8423,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="1">
-        <f>SQRT($F$18*COS(A31*PI()/180)/(0.5*$F$15*C31*$F$16))</f>
+        <f t="shared" si="6"/>
         <v>10.586064939903771</v>
       </c>
       <c r="C31" s="1">
@@ -3677,26 +8436,26 @@
         <v>-0.1958</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.289986996098833</v>
       </c>
       <c r="G31" s="1">
-        <f>D31*0.5*$F$15*$F$16*B31*B31</f>
+        <f t="shared" si="7"/>
         <v>5.9566101464139411E-2</v>
       </c>
       <c r="H31" s="1">
-        <f>G31*B31</f>
+        <f t="shared" si="8"/>
         <v>0.63057061831627692</v>
       </c>
       <c r="I31" s="1">
         <v>0.28029999999999999</v>
       </c>
       <c r="J31" s="1">
-        <f>F31</f>
+        <f t="shared" si="9"/>
         <v>18.289986996098833</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.57315743777441386</v>
       </c>
       <c r="L31" s="1">
@@ -3714,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <f>SQRT($F$18*COS(A32*PI()/180)/(0.5*$F$15*C32*$F$16))</f>
+        <f t="shared" si="6"/>
         <v>9.87879454084546</v>
       </c>
       <c r="C32" s="1">
@@ -3727,26 +8486,26 @@
         <v>-0.25319999999999998</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>16.257085020242915</v>
       </c>
       <c r="G32" s="1">
-        <f>D32*0.5*$F$15*$F$16*B32*B32</f>
+        <f t="shared" si="7"/>
         <v>6.664515466840143E-2</v>
       </c>
       <c r="H32" s="1">
-        <f>G32*B32</f>
+        <f t="shared" si="8"/>
         <v>0.65837379011200536</v>
       </c>
       <c r="I32" s="1">
         <v>0.29509999999999997</v>
       </c>
       <c r="J32" s="1">
-        <f>F32</f>
+        <f t="shared" si="9"/>
         <v>16.257085020242915</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.59842914287065208</v>
       </c>
       <c r="L32" s="1">
@@ -3764,7 +8523,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="1">
-        <f>SQRT($F$18*COS(A33*PI()/180)/(0.5*$F$15*C33*$F$16))</f>
+        <f t="shared" si="6"/>
         <v>9.278611312125058</v>
       </c>
       <c r="C33" s="1">
@@ -3777,26 +8536,26 @@
         <v>-0.31430000000000002</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>14.583870967741936</v>
       </c>
       <c r="G33" s="1">
-        <f>D33*0.5*$F$15*$F$16*B33*B33</f>
+        <f t="shared" si="7"/>
         <v>7.3788958245694869E-2</v>
       </c>
       <c r="H33" s="1">
-        <f>G33*B33</f>
+        <f t="shared" si="8"/>
         <v>0.68465906268842802</v>
       </c>
       <c r="I33" s="1">
         <v>0.30940000000000001</v>
       </c>
       <c r="J33" s="1">
-        <f>F33</f>
+        <f t="shared" si="9"/>
         <v>14.583870967741936</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.62232115281131817</v>
       </c>
       <c r="L33" s="1">
@@ -3814,7 +8573,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="1">
-        <f>SQRT($F$18*COS(A34*PI()/180)/(0.5*$F$15*C34*$F$16))</f>
+        <f t="shared" si="6"/>
         <v>8.7584216013955221</v>
       </c>
       <c r="C34" s="1">
@@ -3827,26 +8586,26 @@
         <v>-0.37919999999999998</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>13.167429692609549</v>
       </c>
       <c r="G34" s="1">
-        <f>D34*0.5*$F$15*$F$16*B34*B34</f>
+        <f t="shared" si="7"/>
         <v>8.1070510653739131E-2</v>
       </c>
       <c r="H34" s="1">
-        <f>G34*B34</f>
+        <f t="shared" si="8"/>
         <v>0.71004971174587461</v>
       </c>
       <c r="I34" s="1">
         <v>0.32440000000000002</v>
       </c>
       <c r="J34" s="1">
-        <f>F34</f>
+        <f t="shared" si="9"/>
         <v>13.167429692609549</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.64539999431530992</v>
       </c>
       <c r="L34" s="1">
@@ -3857,6 +8616,720 @@
       </c>
       <c r="N34" s="1">
         <v>-2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="1">
+        <f>0.002048</f>
+        <v>2.0479999999999999E-3</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="1">
+        <f>(SQRT(2)/(PI()*C62*C60*C63)^(0.25))*(SQRT((C61/C59)/C58))</f>
+        <v>17.522560506141584</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="1">
+        <v>12.637</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.1001700000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.68542099999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="3">
+        <v>-7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="3">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B67" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B69" s="1">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="E69" s="1">
+        <f>B69*COS(RADIANS(A69))+C69*SIN(RADIANS(A69))</f>
+        <v>6.8670700232639423E-2</v>
+      </c>
+      <c r="F69" s="1">
+        <f>C69*COS(RADIANS(A69))-B69*SIN(RADIANS(A69))</f>
+        <v>1.7272664228745242E-2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" ref="E70:E79" si="12">B70*COS(RADIANS(A70))+C70*SIN(RADIANS(A70))</f>
+        <v>0.25400356157779935</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" ref="F70:F79" si="13">C70*COS(RADIANS(A70))-B70*SIN(RADIANS(A70))</f>
+        <v>2.8888764352133653E-2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="H70" s="1">
+        <f>(E71-E69)/(2*2*PI()/180)</f>
+        <v>5.3405875937258545</v>
+      </c>
+      <c r="I70" s="1">
+        <f>(F71-F69)/(2*2*PI()/180)</f>
+        <v>0.18555764460847474</v>
+      </c>
+      <c r="J70" s="1">
+        <f>(G71-G69)/(2*2*PI()/180)</f>
+        <v>-1.0585395265041957</v>
+      </c>
+      <c r="K70" s="1">
+        <f>(E69-2*E70+E71)/((2*PI()/180)^2)</f>
+        <v>1.7871821955508824</v>
+      </c>
+      <c r="L70" s="1">
+        <f>(F69-2*F70+F71)/((2*PI()/180)^2)</f>
+        <v>-8.435033731261786</v>
+      </c>
+      <c r="M70" s="1">
+        <f>(G69-2*G70+G71)/((2*PI()/180)^2)</f>
+        <v>-0.7386314287526351</v>
+      </c>
+      <c r="O70">
+        <f>(I70*M70-J70*L70)/(H70*L70-I70*K70)</f>
+        <v>0.1997783799434989</v>
+      </c>
+      <c r="P70">
+        <f>(H70*M70-J70*K70)/(H70*L70-I70*K70)</f>
+        <v>4.5238830954210399E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.44230000000000003</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="12"/>
+        <v>0.44151405023934909</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="13"/>
+        <v>3.0227031631398796E-2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" ref="H71:H79" si="14">(E72-E70)/(2*2*PI()/180)</f>
+        <v>5.4158325426300289</v>
+      </c>
+      <c r="I71" s="1">
+        <f>(F72-F70)/(2*2*PI()/180)</f>
+        <v>-0.1087010422741472</v>
+      </c>
+      <c r="J71" s="1">
+        <f>(G72-G70)/(2*2*PI()/180)</f>
+        <v>-1.1516451682129547</v>
+      </c>
+      <c r="K71" s="1">
+        <f>(E70-2*E71+E72)/((2*PI()/180)^2)</f>
+        <v>2.5240358063358572</v>
+      </c>
+      <c r="L71" s="1">
+        <f>(F70-2*F71+F72)/((2*PI()/180)^2)</f>
+        <v>-8.4247471121740549</v>
+      </c>
+      <c r="M71" s="1">
+        <f>(G70-2*G71+G72)/((2*PI()/180)^2)</f>
+        <v>-4.595928890016447</v>
+      </c>
+      <c r="O71">
+        <f t="shared" ref="O71:O78" si="15">(I71*M71-J71*L71)/(H71*L71-I71*K71)</f>
+        <v>0.20291507071950055</v>
+      </c>
+      <c r="P71">
+        <f t="shared" ref="P71:P78" si="16">(H71*M71-J71*K71)/(H71*L71-I71*K71)</f>
+        <v>0.48473431089392255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.6321</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="12"/>
+        <v>0.6321</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="13"/>
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="14"/>
+        <v>5.452507991734838</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" ref="I71:J79" si="17">(F73-F71)/(2*2*PI()/180)</f>
+        <v>-0.40420968852212641</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.2017789752869017</v>
+      </c>
+      <c r="K72" s="1">
+        <f>(E71-2*E72+E73)/((2*PI()/180)^2)</f>
+        <v>-0.42268736088342801</v>
+      </c>
+      <c r="L72" s="1">
+        <f>(F71-2*F72+F73)/((2*PI()/180)^2)</f>
+        <v>-8.5066511274596035</v>
+      </c>
+      <c r="M72" s="1">
+        <f>(G71-2*G72+G73)/((2*PI()/180)^2)</f>
+        <v>1.7234733337561694</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="15"/>
+        <v>0.23456396910097707</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="16"/>
+        <v>-0.19094777537722046</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.8216</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-4.48E-2</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="12"/>
+        <v>0.82217091802765585</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="13"/>
+        <v>2.0078718987114434E-3</v>
+      </c>
+      <c r="G73" s="1">
+        <v>-4.48E-2</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="14"/>
+        <v>5.4821854402572692</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.7041470413293337</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.2576423603121569</v>
+      </c>
+      <c r="K73" s="1">
+        <f>(E72-2*E73+E74)/((2*PI()/180)^2)</f>
+        <v>2.1230799079356006</v>
+      </c>
+      <c r="L73" s="1">
+        <f>(F72-2*F73+F74)/((2*PI()/180)^2)</f>
+        <v>-8.6784933067197318</v>
+      </c>
+      <c r="M73" s="1">
+        <f>(G72-2*G73+G74)/((2*PI()/180)^2)</f>
+        <v>-4.9242095250176208</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="15"/>
+        <v>0.16160429505446716</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="16"/>
+        <v>0.52786935833714876</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1.0143</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>-9.1700000000000004E-2</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="12"/>
+        <v>1.014828744549537</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.7858737157493853E-2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>-9.1700000000000004E-2</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="14"/>
+        <v>5.5363396285377071</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.0073115274968092</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.3922874421679001</v>
+      </c>
+      <c r="K74" s="1">
+        <f>(E73-2*E74+E75)/((2*PI()/180)^2)</f>
+        <v>0.97972652349049916</v>
+      </c>
+      <c r="L74" s="1">
+        <f>(F73-2*F74+F75)/((2*PI()/180)^2)</f>
+        <v>-8.6915522489288382</v>
+      </c>
+      <c r="M74" s="1">
+        <f>(G73-2*G74+G75)/((2*PI()/180)^2)</f>
+        <v>-2.7903853975099713</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="15"/>
+        <v>0.19711139007894257</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="16"/>
+        <v>0.29882696049921825</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1.2092000000000001</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="12"/>
+        <v>1.2086803381341471</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="13"/>
+        <v>-6.8315739093739419E-2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="14"/>
+        <v>5.5675126219762365</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.3140302145252403</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.4911226618279674</v>
+      </c>
+      <c r="K75" s="1">
+        <f>(E74-2*E75+E76)/((2*PI()/180)^2)</f>
+        <v>0.80635443532630791</v>
+      </c>
+      <c r="L75" s="1">
+        <f>(F74-2*F75+F76)/((2*PI()/180)^2)</f>
+        <v>-8.8821340155942394</v>
+      </c>
+      <c r="M75" s="1">
+        <f>(G74-2*G75+G76)/((2*PI()/180)^2)</f>
+        <v>-2.8724555562603014</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="15"/>
+        <v>0.19569129847820152</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="16"/>
+        <v>0.30563139500164604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="C76" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-0.1958</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="12"/>
+        <v>1.4035144501488479</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="13"/>
+        <v>-0.11959535201410529</v>
+      </c>
+      <c r="G76" s="1">
+        <v>-0.1958</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="14"/>
+        <v>5.5902677712758324</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.6228880273996293</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.5928226704636885</v>
+      </c>
+      <c r="K76" s="1">
+        <f>(E75-2*E76+E77)/((2*PI()/180)^2)</f>
+        <v>0.49741958173060985</v>
+      </c>
+      <c r="L76" s="1">
+        <f>(F75-2*F76+F77)/((2*PI()/180)^2)</f>
+        <v>-8.8141151317495936</v>
+      </c>
+      <c r="M76" s="1">
+        <f>(G75-2*G76+G77)/((2*PI()/180)^2)</f>
+        <v>-2.9545257150105404</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="15"/>
+        <v>0.19074106729754847</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="16"/>
+        <v>0.32443953027068145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1.6062000000000001</v>
+      </c>
+      <c r="C77" s="1">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-0.25319999999999998</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="12"/>
+        <v>1.5989546528417014</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="13"/>
+        <v>-0.18161469697101734</v>
+      </c>
+      <c r="G77" s="1">
+        <v>-0.25319999999999998</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="14"/>
+        <v>5.602792714220195</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.9351914118118756</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.697387468075064</v>
+      </c>
+      <c r="K77" s="1">
+        <f>(E76-2*E77+E78)/((2*PI()/180)^2)</f>
+        <v>0.22020678762354887</v>
+      </c>
+      <c r="L77" s="1">
+        <f>(F76-2*F77+F78)/((2*PI()/180)^2)</f>
+        <v>-9.0795507227238623</v>
+      </c>
+      <c r="M77" s="1">
+        <f>(G76-2*G77+G78)/((2*PI()/180)^2)</f>
+        <v>-3.0365958737608931</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="15"/>
+        <v>0.18902127810638444</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="16"/>
+        <v>0.32985906426194822</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>12</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1.8084</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-0.31430000000000002</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="12"/>
+        <v>1.7946631708284164</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="13"/>
+        <v>-0.25469719918384415</v>
+      </c>
+      <c r="G78" s="1">
+        <v>-0.31430000000000002</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="14"/>
+        <v>5.6082769233879732</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="17"/>
+        <v>-2.2501261397053613</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.8048170546620932</v>
+      </c>
+      <c r="K78" s="1">
+        <f>(E77-2*E78+E79)/((2*PI()/180)^2)</f>
+        <v>9.401525165707926E-2</v>
+      </c>
+      <c r="L78" s="1">
+        <f>(F77-2*F78+F79)/((2*PI()/180)^2)</f>
+        <v>-8.9648800076738784</v>
+      </c>
+      <c r="M78" s="1">
+        <f>(G77-2*G78+G79)/((2*PI()/180)^2)</f>
+        <v>-3.1186660325110869</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="15"/>
+        <v>0.18301001460246016</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="16"/>
+        <v>0.34595669961869441</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>14</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.0133000000000001</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-0.37919999999999998</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="12"/>
+        <v>1.990486243548653</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="13"/>
+        <v>-0.33870313586321121</v>
+      </c>
+      <c r="G79" s="1">
+        <v>-0.37919999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Dynamics of Atmospheric Flight/Aero_Project/A_18_MachUP.xlsx
+++ b/Dynamics of Atmospheric Flight/Aero_Project/A_18_MachUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\USU\Machine_Learning\Spring_2024\Dynamics of Atmospheric Flight\Aero_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D187AB77-3001-4161-A1EB-D3FD47412209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D3206C-75C1-4AB0-B216-25542D11E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A63E6AFB-F69A-4C02-A7B8-ACF62953D1BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Alpha</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>Y_ac</t>
+  </si>
+  <si>
+    <t>Ballist Drag</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Cref</t>
   </si>
 </sst>
 </file>
@@ -4320,31 +4332,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.1997783799434989</c:v>
+                  <c:v>0.19965238924475809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20291507071950055</c:v>
+                  <c:v>0.2028005712976147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23456396910097707</c:v>
+                  <c:v>0.23441112852300358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16160429505446716</c:v>
+                  <c:v>0.1615153400046998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19711139007894257</c:v>
+                  <c:v>0.19699457060753919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19569129847820152</c:v>
+                  <c:v>0.1955749597811213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19074106729754847</c:v>
+                  <c:v>0.19062882761951838</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18902127810638444</c:v>
+                  <c:v>0.18890931822852602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18301001460246016</c:v>
+                  <c:v>0.18290209649014702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4429,31 +4441,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.5238830954210399E-2</c:v>
+                  <c:v>4.5241470490812549E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48473431089392255</c:v>
+                  <c:v>0.48456823956889855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.19094777537722046</c:v>
+                  <c:v>-0.19087827829989437</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52786935833714876</c:v>
+                  <c:v>0.52768457845727668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29882696049921825</c:v>
+                  <c:v>0.29872776513743843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30563139500164604</c:v>
+                  <c:v>0.30553233025470139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32443953027068145</c:v>
+                  <c:v>0.32433101516769458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32985906426194822</c:v>
+                  <c:v>0.3297513119684331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34595669961869441</c:v>
+                  <c:v>0.34584276222699217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4597,6 +4609,350 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="52038464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Aero Center</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$70:$O$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.19965238924475809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2028005712976147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23441112852300358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1615153400046998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19699457060753919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1955749597811213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19062882761951838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18890931822852602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18290209649014702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$70:$P$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.5241470490812549E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48456823956889855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.19087827829989437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52768457845727668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29872776513743843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30553233025470139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32433101516769458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3297513119684331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34584276222699217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8038-4141-A94A-5A2203A5FA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1545326735"/>
+        <c:axId val="1503175519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1545326735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503175519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1503175519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545326735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4812,6 +5168,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6361,6 +6757,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7028,16 +7940,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7057,6 +7969,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA774B2-DD9C-1CCD-32E4-9B74018D13A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7362,10 +8310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4602115-156F-4427-9CDC-7D2EBE7CF748}">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="S73" sqref="S73"/>
+    <sheetView tabSelected="1" topLeftCell="C63" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8709,20 +9657,28 @@
         <v>-7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="3">
         <v>3.8699999999999998E-2</v>
       </c>
+      <c r="O65" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O66">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -8768,8 +9724,14 @@
       <c r="P68" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="Q68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>-6</v>
       </c>
@@ -8777,24 +9739,25 @@
         <v>7.0099999999999996E-2</v>
       </c>
       <c r="C69" s="1">
-        <v>0.01</v>
+        <f>B82+$B$95</f>
+        <v>1.3436E-2</v>
       </c>
       <c r="D69" s="1">
         <v>0.113</v>
       </c>
       <c r="E69" s="1">
         <f>B69*COS(RADIANS(A69))+C69*SIN(RADIANS(A69))</f>
-        <v>6.8670700232639423E-2</v>
+        <v>6.8311540432851758E-2</v>
       </c>
       <c r="F69" s="1">
         <f>C69*COS(RADIANS(A69))-B69*SIN(RADIANS(A69))</f>
-        <v>1.7272664228745242E-2</v>
+        <v>2.0689841461230627E-2</v>
       </c>
       <c r="G69" s="1">
         <v>0.113</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>-4</v>
       </c>
@@ -8802,29 +9765,30 @@
         <v>0.25540000000000002</v>
       </c>
       <c r="C70" s="1">
-        <v>1.11E-2</v>
+        <f t="shared" ref="C70:C79" si="12">B83+$B$95</f>
+        <v>1.4536E-2</v>
       </c>
       <c r="D70" s="1">
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" ref="E70:E79" si="12">B70*COS(RADIANS(A70))+C70*SIN(RADIANS(A70))</f>
-        <v>0.25400356157779935</v>
+        <f>B70*COS(RADIANS(A70))+C70*SIN(RADIANS(A70))</f>
+        <v>0.25376387833401454</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F79" si="13">C70*COS(RADIANS(A70))-B70*SIN(RADIANS(A70))</f>
-        <v>2.8888764352133653E-2</v>
+        <f>C70*COS(RADIANS(A70))-B70*SIN(RADIANS(A70))</f>
+        <v>3.231639442882641E-2</v>
       </c>
       <c r="G70" s="1">
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="H70" s="1">
         <f>(E71-E69)/(2*2*PI()/180)</f>
-        <v>5.3405875937258545</v>
+        <v>5.3440145277677331</v>
       </c>
       <c r="I70" s="1">
         <f>(F71-F69)/(2*2*PI()/180)</f>
-        <v>0.18555764460847474</v>
+        <v>0.18579727918076411</v>
       </c>
       <c r="J70" s="1">
         <f>(G71-G69)/(2*2*PI()/180)</f>
@@ -8832,26 +9796,34 @@
       </c>
       <c r="K70" s="1">
         <f>(E69-2*E70+E71)/((2*PI()/180)^2)</f>
-        <v>1.7871821955508824</v>
+        <v>1.7874218544584084</v>
       </c>
       <c r="L70" s="1">
-        <f>(F69-2*F70+F71)/((2*PI()/180)^2)</f>
-        <v>-8.435033731261786</v>
+        <f t="shared" ref="L70:L78" si="13">(F69-2*F70+F71)/((2*PI()/180)^2)</f>
+        <v>-8.4384610133140026</v>
       </c>
       <c r="M70" s="1">
-        <f>(G69-2*G70+G71)/((2*PI()/180)^2)</f>
+        <f t="shared" ref="M70:M78" si="14">(G69-2*G70+G71)/((2*PI()/180)^2)</f>
         <v>-0.7386314287526351</v>
       </c>
       <c r="O70">
         <f>(I70*M70-J70*L70)/(H70*L70-I70*K70)</f>
-        <v>0.1997783799434989</v>
+        <v>0.19965238924475809</v>
       </c>
       <c r="P70">
         <f>(H70*M70-J70*K70)/(H70*L70-I70*K70)</f>
-        <v>4.5238830954210399E-2</v>
+        <v>4.5241470490812549E-2</v>
+      </c>
+      <c r="Q70">
+        <f>O70*$O$66</f>
+        <v>0.14973929193356855</v>
+      </c>
+      <c r="R70">
+        <f>P70*$O$66</f>
+        <v>3.3931102868109408E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>-2</v>
       </c>
@@ -8859,56 +9831,65 @@
         <v>0.44230000000000003</v>
       </c>
       <c r="C71" s="1">
-        <v>1.4800000000000001E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.8236000000000002E-2</v>
       </c>
       <c r="D71" s="1">
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="12"/>
-        <v>0.44151405023934909</v>
+        <f>B71*COS(RADIANS(A71))+C71*SIN(RADIANS(A71))</f>
+        <v>0.44139413556867929</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="13"/>
-        <v>3.0227031631398796E-2</v>
+        <f>C71*COS(RADIANS(A71))-B71*SIN(RADIANS(A71))</f>
+        <v>3.3660938513036413E-2</v>
       </c>
       <c r="G71" s="1">
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" ref="H71:H79" si="14">(E72-E70)/(2*2*PI()/180)</f>
-        <v>5.4158325426300289</v>
+        <f t="shared" ref="H71:H78" si="15">(E72-E70)/(2*2*PI()/180)</f>
+        <v>5.4192657522022474</v>
       </c>
       <c r="I71" s="1">
         <f>(F72-F70)/(2*2*PI()/180)</f>
-        <v>-0.1087010422741472</v>
+        <v>-0.10858115195405889</v>
       </c>
       <c r="J71" s="1">
         <f>(G72-G70)/(2*2*PI()/180)</f>
         <v>-1.1516451682129547</v>
       </c>
       <c r="K71" s="1">
-        <f>(E70-2*E71+E72)/((2*PI()/180)^2)</f>
-        <v>2.5240358063358572</v>
+        <f t="shared" ref="K71:K78" si="16">(E70-2*E71+E72)/((2*PI()/180)^2)</f>
+        <v>2.5241557088309468</v>
       </c>
       <c r="L71" s="1">
-        <f>(F70-2*F71+F72)/((2*PI()/180)^2)</f>
-        <v>-8.4247471121740549</v>
+        <f t="shared" si="13"/>
+        <v>-8.4281806703939086</v>
       </c>
       <c r="M71" s="1">
-        <f>(G70-2*G71+G72)/((2*PI()/180)^2)</f>
+        <f t="shared" si="14"/>
         <v>-4.595928890016447</v>
       </c>
       <c r="O71">
-        <f t="shared" ref="O71:O78" si="15">(I71*M71-J71*L71)/(H71*L71-I71*K71)</f>
-        <v>0.20291507071950055</v>
+        <f t="shared" ref="O71:O78" si="17">(I71*M71-J71*L71)/(H71*L71-I71*K71)</f>
+        <v>0.2028005712976147</v>
       </c>
       <c r="P71">
-        <f t="shared" ref="P71:P78" si="16">(H71*M71-J71*K71)/(H71*L71-I71*K71)</f>
-        <v>0.48473431089392255</v>
+        <f t="shared" ref="P71:P78" si="18">(H71*M71-J71*K71)/(H71*L71-I71*K71)</f>
+        <v>0.48456823956889855</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ref="Q71:R78" si="19">O71*$O$66</f>
+        <v>0.15210042847321104</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="19"/>
+        <v>0.3634261796766739</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -8916,56 +9897,65 @@
         <v>0.6321</v>
       </c>
       <c r="C72" s="1">
-        <v>2.1299999999999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.4736000000000001E-2</v>
       </c>
       <c r="D72" s="1">
         <v>-3.8999999999999998E-3</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="12"/>
+        <f>B72*COS(RADIANS(A72))+C72*SIN(RADIANS(A72))</f>
         <v>0.6321</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="13"/>
-        <v>2.1299999999999999E-2</v>
+        <f>C72*COS(RADIANS(A72))-B72*SIN(RADIANS(A72))</f>
+        <v>2.4736000000000001E-2</v>
       </c>
       <c r="G72" s="1">
         <v>-3.8999999999999998E-3</v>
       </c>
       <c r="H72" s="1">
+        <f t="shared" si="15"/>
+        <v>5.4559432940003774</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" ref="I72:J78" si="20">(F73-F71)/(2*2*PI()/180)</f>
+        <v>-0.40420968852212646</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.2017789752869017</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="16"/>
+        <v>-0.4226873608835191</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.5100867785852863</v>
+      </c>
+      <c r="M72" s="1">
         <f t="shared" si="14"/>
-        <v>5.452507991734838</v>
-      </c>
-      <c r="I72" s="1">
-        <f t="shared" ref="I71:J79" si="17">(F73-F71)/(2*2*PI()/180)</f>
-        <v>-0.40420968852212641</v>
-      </c>
-      <c r="J72" s="1">
+        <v>1.7234733337561694</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="17"/>
-        <v>-1.2017789752869017</v>
-      </c>
-      <c r="K72" s="1">
-        <f>(E71-2*E72+E73)/((2*PI()/180)^2)</f>
-        <v>-0.42268736088342801</v>
-      </c>
-      <c r="L72" s="1">
-        <f>(F71-2*F72+F73)/((2*PI()/180)^2)</f>
-        <v>-8.5066511274596035</v>
-      </c>
-      <c r="M72" s="1">
-        <f>(G71-2*G72+G73)/((2*PI()/180)^2)</f>
-        <v>1.7234733337561694</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="15"/>
-        <v>0.23456396910097707</v>
+        <v>0.23441112852300358</v>
       </c>
       <c r="P72">
-        <f t="shared" si="16"/>
-        <v>-0.19094777537722046</v>
+        <f t="shared" si="18"/>
+        <v>-0.19087827829989437</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="19"/>
+        <v>0.17580834639225268</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="19"/>
+        <v>-0.14315870872492079</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -8973,56 +9963,65 @@
         <v>0.8216</v>
       </c>
       <c r="C73" s="1">
-        <v>3.0700000000000002E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.4136E-2</v>
       </c>
       <c r="D73" s="1">
         <v>-4.48E-2</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="12"/>
-        <v>0.82217091802765585</v>
+        <f>B73*COS(RADIANS(A73))+C73*SIN(RADIANS(A73))</f>
+        <v>0.82229083269832559</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="13"/>
-        <v>2.0078718987114434E-3</v>
+        <f>C73*COS(RADIANS(A73))-B73*SIN(RADIANS(A73))</f>
+        <v>5.4417787803490575E-3</v>
       </c>
       <c r="G73" s="1">
         <v>-4.48E-2</v>
       </c>
       <c r="H73" s="1">
+        <f t="shared" si="15"/>
+        <v>5.4856186498294877</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.70426693164942211</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.2576423603121569</v>
+      </c>
+      <c r="K73" s="1">
+        <f t="shared" si="16"/>
+        <v>2.1229600054403286</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.6819268649395784</v>
+      </c>
+      <c r="M73" s="1">
         <f t="shared" si="14"/>
-        <v>5.4821854402572692</v>
-      </c>
-      <c r="I73" s="1">
+        <v>-4.9242095250176208</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="17"/>
-        <v>-0.7041470413293337</v>
-      </c>
-      <c r="J73" s="1">
-        <f t="shared" si="17"/>
-        <v>-1.2576423603121569</v>
-      </c>
-      <c r="K73" s="1">
-        <f>(E72-2*E73+E74)/((2*PI()/180)^2)</f>
-        <v>2.1230799079356006</v>
-      </c>
-      <c r="L73" s="1">
-        <f>(F72-2*F73+F74)/((2*PI()/180)^2)</f>
-        <v>-8.6784933067197318</v>
-      </c>
-      <c r="M73" s="1">
-        <f>(G72-2*G73+G74)/((2*PI()/180)^2)</f>
-        <v>-4.9242095250176208</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="15"/>
-        <v>0.16160429505446716</v>
+        <v>0.1615153400046998</v>
       </c>
       <c r="P73">
-        <f t="shared" si="16"/>
-        <v>0.52786935833714876</v>
+        <f t="shared" si="18"/>
+        <v>0.52768457845727668</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="19"/>
+        <v>0.12113650500352485</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="19"/>
+        <v>0.39576343384295753</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>4</v>
       </c>
@@ -9030,56 +10029,65 @@
         <v>1.0143</v>
       </c>
       <c r="C74" s="1">
-        <v>4.2999999999999997E-2</v>
+        <f t="shared" si="12"/>
+        <v>4.6435999999999998E-2</v>
       </c>
       <c r="D74" s="1">
         <v>-9.1700000000000004E-2</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="12"/>
-        <v>1.014828744549537</v>
+        <f>B74*COS(RADIANS(A74))+C74*SIN(RADIANS(A74))</f>
+        <v>1.0150684277933217</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="13"/>
-        <v>-2.7858737157493853E-2</v>
+        <f>C74*COS(RADIANS(A74))-B74*SIN(RADIANS(A74))</f>
+        <v>-2.4431107080801095E-2</v>
       </c>
       <c r="G74" s="1">
         <v>-9.1700000000000004E-2</v>
       </c>
       <c r="H74" s="1">
+        <f t="shared" si="15"/>
+        <v>5.5397665625795867</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.0075511620690984</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.3922874421679001</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="16"/>
+        <v>0.97948686458288203</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.6949795309810494</v>
+      </c>
+      <c r="M74" s="1">
         <f t="shared" si="14"/>
-        <v>5.5363396285377071</v>
-      </c>
-      <c r="I74" s="1">
+        <v>-2.7903853975099713</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="17"/>
-        <v>-1.0073115274968092</v>
-      </c>
-      <c r="J74" s="1">
-        <f t="shared" si="17"/>
-        <v>-1.3922874421679001</v>
-      </c>
-      <c r="K74" s="1">
-        <f>(E73-2*E74+E75)/((2*PI()/180)^2)</f>
-        <v>0.97972652349049916</v>
-      </c>
-      <c r="L74" s="1">
-        <f>(F73-2*F74+F75)/((2*PI()/180)^2)</f>
-        <v>-8.6915522489288382</v>
-      </c>
-      <c r="M74" s="1">
-        <f>(G73-2*G74+G75)/((2*PI()/180)^2)</f>
-        <v>-2.7903853975099713</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="15"/>
-        <v>0.19711139007894257</v>
+        <v>0.19699457060753919</v>
       </c>
       <c r="P74">
-        <f t="shared" si="16"/>
-        <v>0.29882696049921825</v>
+        <f t="shared" si="18"/>
+        <v>0.29872776513743843</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="19"/>
+        <v>0.14774592795565439</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="19"/>
+        <v>0.22404582385307881</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>6</v>
       </c>
@@ -9087,56 +10095,65 @@
         <v>1.2092000000000001</v>
       </c>
       <c r="C75" s="1">
-        <v>5.8400000000000001E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.1836000000000002E-2</v>
       </c>
       <c r="D75" s="1">
         <v>-0.14199999999999999</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="12"/>
-        <v>1.2086803381341471</v>
+        <f>B75*COS(RADIANS(A75))+C75*SIN(RADIANS(A75))</f>
+        <v>1.2090394979339347</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="13"/>
-        <v>-6.8315739093739419E-2</v>
+        <f>C75*COS(RADIANS(A75))-B75*SIN(RADIANS(A75))</f>
+        <v>-6.489856186125402E-2</v>
       </c>
       <c r="G75" s="1">
         <v>-0.14199999999999999</v>
       </c>
       <c r="H75" s="1">
+        <f t="shared" si="15"/>
+        <v>5.5709291052965249</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.3143893013919172</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.4911226618279674</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="16"/>
+        <v>0.80599531199379315</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.8855508458636141</v>
+      </c>
+      <c r="M75" s="1">
         <f t="shared" si="14"/>
-        <v>5.5675126219762365</v>
-      </c>
-      <c r="I75" s="1">
+        <v>-2.8724555562603014</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="17"/>
-        <v>-1.3140302145252403</v>
-      </c>
-      <c r="J75" s="1">
-        <f t="shared" si="17"/>
-        <v>-1.4911226618279674</v>
-      </c>
-      <c r="K75" s="1">
-        <f>(E74-2*E75+E76)/((2*PI()/180)^2)</f>
-        <v>0.80635443532630791</v>
-      </c>
-      <c r="L75" s="1">
-        <f>(F74-2*F75+F76)/((2*PI()/180)^2)</f>
-        <v>-8.8821340155942394</v>
-      </c>
-      <c r="M75" s="1">
-        <f>(G74-2*G75+G76)/((2*PI()/180)^2)</f>
-        <v>-2.8724555562603014</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="15"/>
-        <v>0.19569129847820152</v>
+        <v>0.1955749597811213</v>
       </c>
       <c r="P75">
-        <f t="shared" si="16"/>
-        <v>0.30563139500164604</v>
+        <f t="shared" si="18"/>
+        <v>0.30553233025470139</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="19"/>
+        <v>0.14668121983584098</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="19"/>
+        <v>0.22914924769102604</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>8</v>
       </c>
@@ -9144,56 +10161,65 @@
         <v>1.4065000000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>7.6899999999999996E-2</v>
+        <f t="shared" si="12"/>
+        <v>8.0335999999999991E-2</v>
       </c>
       <c r="D76" s="1">
         <v>-0.1958</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4035144501488479</v>
+        <f>B76*COS(RADIANS(A76))+C76*SIN(RADIANS(A76))</f>
+        <v>1.4039926489237466</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="13"/>
-        <v>-0.11959535201410529</v>
+        <f>C76*COS(RADIANS(A76))-B76*SIN(RADIANS(A76))</f>
+        <v>-0.11619279092990926</v>
       </c>
       <c r="G76" s="1">
         <v>-0.1958</v>
       </c>
       <c r="H76" s="1">
+        <f t="shared" si="15"/>
+        <v>5.5936696414158718</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.6233661290686601</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.5928226704636885</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="16"/>
+        <v>0.49694143150963083</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.8175173473546611</v>
+      </c>
+      <c r="M76" s="1">
         <f t="shared" si="14"/>
-        <v>5.5902677712758324</v>
-      </c>
-      <c r="I76" s="1">
+        <v>-2.9545257150105404</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="17"/>
-        <v>-1.6228880273996293</v>
-      </c>
-      <c r="J76" s="1">
-        <f t="shared" si="17"/>
-        <v>-1.5928226704636885</v>
-      </c>
-      <c r="K76" s="1">
-        <f>(E75-2*E76+E77)/((2*PI()/180)^2)</f>
-        <v>0.49741958173060985</v>
-      </c>
-      <c r="L76" s="1">
-        <f>(F75-2*F76+F77)/((2*PI()/180)^2)</f>
-        <v>-8.8141151317495936</v>
-      </c>
-      <c r="M76" s="1">
-        <f>(G75-2*G76+G77)/((2*PI()/180)^2)</f>
-        <v>-2.9545257150105404</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="15"/>
-        <v>0.19074106729754847</v>
+        <v>0.19062882761951838</v>
       </c>
       <c r="P76">
-        <f t="shared" si="16"/>
-        <v>0.32443953027068145</v>
+        <f t="shared" si="18"/>
+        <v>0.32433101516769458</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="19"/>
+        <v>0.14297162071463879</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="19"/>
+        <v>0.24324826137577094</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>10</v>
       </c>
@@ -9201,56 +10227,65 @@
         <v>1.6062000000000001</v>
       </c>
       <c r="C77" s="1">
-        <v>9.8799999999999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.10223599999999999</v>
       </c>
       <c r="D77" s="1">
         <v>-0.25319999999999998</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5989546528417014</v>
+        <f>B77*COS(RADIANS(A77))+C77*SIN(RADIANS(A77))</f>
+        <v>1.5995513079801649</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="13"/>
-        <v>-0.18161469697101734</v>
+        <f>C77*COS(RADIANS(A77))-B77*SIN(RADIANS(A77))</f>
+        <v>-0.1782308975316674</v>
       </c>
       <c r="G77" s="1">
         <v>-0.25319999999999998</v>
       </c>
       <c r="H77" s="1">
+        <f t="shared" si="15"/>
+        <v>5.6061758265252397</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.9357879457900218</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.697387468075064</v>
+      </c>
+      <c r="K77" s="1">
+        <f t="shared" si="16"/>
+        <v>0.21961019306649501</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" si="13"/>
+        <v>-9.0829341785890652</v>
+      </c>
+      <c r="M77" s="1">
         <f t="shared" si="14"/>
-        <v>5.602792714220195</v>
-      </c>
-      <c r="I77" s="1">
+        <v>-3.0365958737608931</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="17"/>
-        <v>-1.9351914118118756</v>
-      </c>
-      <c r="J77" s="1">
-        <f t="shared" si="17"/>
-        <v>-1.697387468075064</v>
-      </c>
-      <c r="K77" s="1">
-        <f>(E76-2*E77+E78)/((2*PI()/180)^2)</f>
-        <v>0.22020678762354887</v>
-      </c>
-      <c r="L77" s="1">
-        <f>(F76-2*F77+F78)/((2*PI()/180)^2)</f>
-        <v>-9.0795507227238623</v>
-      </c>
-      <c r="M77" s="1">
-        <f>(G76-2*G77+G78)/((2*PI()/180)^2)</f>
-        <v>-3.0365958737608931</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="15"/>
-        <v>0.18902127810638444</v>
+        <v>0.18890931822852602</v>
       </c>
       <c r="P77">
-        <f t="shared" si="16"/>
-        <v>0.32985906426194822</v>
+        <f t="shared" si="18"/>
+        <v>0.3297513119684331</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="19"/>
+        <v>0.14168198867139453</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="19"/>
+        <v>0.24731348397632483</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>12</v>
       </c>
@@ -9258,56 +10293,65 @@
         <v>1.8084</v>
       </c>
       <c r="C78" s="1">
-        <v>0.124</v>
+        <f t="shared" si="12"/>
+        <v>0.12743599999999999</v>
       </c>
       <c r="D78" s="1">
         <v>-0.31430000000000002</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="12"/>
-        <v>1.7946631708284164</v>
+        <f>B78*COS(RADIANS(A78))+C78*SIN(RADIANS(A78))</f>
+        <v>1.7953775553980662</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="13"/>
-        <v>-0.25469719918384415</v>
+        <f>C78*COS(RADIANS(A78))-B78*SIN(RADIANS(A78))</f>
+        <v>-0.25133628402772279</v>
       </c>
       <c r="G78" s="1">
         <v>-0.31430000000000002</v>
       </c>
       <c r="H78" s="1">
+        <f t="shared" si="15"/>
+        <v>5.6116371560568075</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.2508403792078591</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.8048170546620932</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="16"/>
+        <v>9.330093962250105E-2</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.968240581579412</v>
+      </c>
+      <c r="M78" s="1">
         <f t="shared" si="14"/>
-        <v>5.6082769233879732</v>
-      </c>
-      <c r="I78" s="1">
+        <v>-3.1186660325110869</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="17"/>
-        <v>-2.2501261397053613</v>
-      </c>
-      <c r="J78" s="1">
-        <f t="shared" si="17"/>
-        <v>-1.8048170546620932</v>
-      </c>
-      <c r="K78" s="1">
-        <f>(E77-2*E78+E79)/((2*PI()/180)^2)</f>
-        <v>9.401525165707926E-2</v>
-      </c>
-      <c r="L78" s="1">
-        <f>(F77-2*F78+F79)/((2*PI()/180)^2)</f>
-        <v>-8.9648800076738784</v>
-      </c>
-      <c r="M78" s="1">
-        <f>(G77-2*G78+G79)/((2*PI()/180)^2)</f>
-        <v>-3.1186660325110869</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="15"/>
-        <v>0.18301001460246016</v>
+        <v>0.18290209649014702</v>
       </c>
       <c r="P78">
-        <f t="shared" si="16"/>
-        <v>0.34595669961869441</v>
+        <f t="shared" si="18"/>
+        <v>0.34584276222699217</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="19"/>
+        <v>0.13717657236761027</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="19"/>
+        <v>0.25938207167024413</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -9315,21 +10359,87 @@
         <v>2.0133000000000001</v>
       </c>
       <c r="C79" s="1">
-        <v>0.15290000000000001</v>
+        <f t="shared" si="12"/>
+        <v>0.156336</v>
       </c>
       <c r="D79" s="1">
         <v>-0.37919999999999998</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="12"/>
-        <v>1.990486243548653</v>
+        <f>B79*COS(RADIANS(A79))+C79*SIN(RADIANS(A79))</f>
+        <v>1.9913174871819335</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="13"/>
-        <v>-0.33870313586321121</v>
+        <f>C79*COS(RADIANS(A79))-B79*SIN(RADIANS(A79))</f>
+        <v>-0.33536919974772683</v>
       </c>
       <c r="G79" s="1">
         <v>-0.37919999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="1">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="1">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="1">
+        <v>5.8400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="1">
+        <v>9.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="1">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="1">
+        <v>0.15290000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="2">
+        <v>3.4359999999999998E-3</v>
       </c>
     </row>
   </sheetData>
